--- a/results.xlsx
+++ b/results.xlsx
@@ -473,15 +473,15 @@
         <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001051046983569008</v>
+        <v>9.096630756850048e-06</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.010234895900978924, -0.0005929622694789763]</t>
+          <t>[-0.0009903354493917826, 0.0028488359823843883]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.0001051046983569008</v>
+        <v>9.096630756850048e-06</v>
       </c>
     </row>
     <row r="3">
@@ -497,15 +497,15 @@
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>4.01205286793627e-05</v>
+        <v>9.190844873596156e-05</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.0040409271893243615, 0.004877646576981753]</t>
+          <t>[-0.00028113559462385196, -0.009582766381029909]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.01205286793627e-05</v>
+        <v>9.190844873596156e-05</v>
       </c>
     </row>
     <row r="4">
@@ -521,15 +521,15 @@
         <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>1.912111090086212e-07</v>
+        <v>2.84514925225197e-08</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.0004369222877556034, 1.7607483381532063e-05]</t>
+          <t>[-0.00016286492322292734, 4.389201870624859e-05]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.912111090086212e-07</v>
+        <v>2.84514925225197e-08</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -473,15 +473,15 @@
         <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>9.096630756850048e-06</v>
+        <v>2.157262080459971e-05</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.0009903354493917826, 0.0028488359823843883]</t>
+          <t>[-0.004618799453460188, 0.0004891956799845838]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9.096630756850048e-06</v>
+        <v>2.157262080459971e-05</v>
       </c>
     </row>
     <row r="3">
@@ -497,15 +497,15 @@
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>9.190844873596156e-05</v>
+        <v>6.017376038691174e-05</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.00028113559462385196, -0.009582766381029909]</t>
+          <t>[-0.005709101036829867, -0.005251659331885483]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9.190844873596156e-05</v>
+        <v>6.017376038691174e-05</v>
       </c>
     </row>
     <row r="4">
@@ -521,15 +521,15 @@
         <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>2.84514925225197e-08</v>
+        <v>4.666272449767209e-06</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.00016286492322292734, 4.389201870624859e-05]</t>
+          <t>[0.0005420164333163058, -0.002091050127515426]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.84514925225197e-08</v>
+        <v>4.666272449767209e-06</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -473,15 +473,15 @@
         <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>2.157262080459971e-05</v>
+        <v>6.829043703102723e-07</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.004618799453460188, 0.0004891956799845838]</t>
+          <t>[-0.0007449605647471373, 0.00035768439619572254]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.157262080459971e-05</v>
+        <v>6.829043703102723e-07</v>
       </c>
     </row>
     <row r="3">
@@ -497,15 +497,15 @@
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>6.017376038691174e-05</v>
+        <v>3.816522239523435e-07</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.005709101036829867, -0.005251659331885483]</t>
+          <t>[1.4313058870174533e-05, -0.0006176142487816505]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.017376038691174e-05</v>
+        <v>3.816522239523435e-07</v>
       </c>
     </row>
     <row r="4">
@@ -521,15 +521,15 @@
         <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>4.666272449767209e-06</v>
+        <v>3.654141709835864e-07</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.0005420164333163058, -0.002091050127515426]</t>
+          <t>[-0.0005494350723700414, 0.00025206204044503355]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.666272449767209e-06</v>
+        <v>3.654141709835864e-07</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,66 +470,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D2" t="n">
-        <v>6.829043703102723e-07</v>
+        <v>1.079385419038577e-06</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.0007449605647471373, 0.00035768439619572254]</t>
+          <t>[0.0008785428790205607, 0.0005545699493849643]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.829043703102723e-07</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>spherical</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.816522239523435e-07</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1.4313058870174533e-05, -0.0006176142487816505]</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3.816522239523435e-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spherical</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>500</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.654141709835864e-07</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[-0.0005494350723700414, 0.00025206204044503355]</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3.654141709835864e-07</v>
+        <v>1.079385419038577e-06</v>
       </c>
     </row>
   </sheetData>
